--- a/new_data!.xlsx
+++ b/new_data!.xlsx
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="K640" workbookViewId="0">
+      <selection activeCell="V655" sqref="V655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45510,7 +45510,7 @@
         <v>198</v>
       </c>
       <c r="V654">
-        <v>140000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="655" spans="1:22" x14ac:dyDescent="0.25">
